--- a/_work/fixed/fixed_smote/FixedSmote.xlsx
+++ b/_work/fixed/fixed_smote/FixedSmote.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothydement/Google Drive/NCSU/3-Fall-2018/CSC-591-023/CodeSmellsClassifiers/_work/fixed/fixed_smote/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B8B940-17E4-8C49-A9A1-CEA44FBE05DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5A5A34-75AD-4446-AA13-E6A26DBF3B43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{9FAC2C79-A0B4-AF46-AB90-4B293DB222EF}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="32000" windowHeight="17540" activeTab="5" xr2:uid="{9FAC2C79-A0B4-AF46-AB90-4B293DB222EF}"/>
   </bookViews>
   <sheets>
     <sheet name="DC" sheetId="1" r:id="rId1"/>
     <sheet name="GC" sheetId="2" r:id="rId2"/>
     <sheet name="FE" sheetId="3" r:id="rId3"/>
     <sheet name="LM" sheetId="4" r:id="rId4"/>
+    <sheet name="DC-DET" sheetId="5" r:id="rId5"/>
+    <sheet name="GC-DET" sheetId="6" r:id="rId6"/>
+    <sheet name="FE-DET" sheetId="7" r:id="rId7"/>
+    <sheet name="LM-DET" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="27">
   <si>
     <t>RAND</t>
   </si>
@@ -101,6 +105,15 @@
   <si>
     <t>Diff</t>
   </si>
+  <si>
+    <t>Prec</t>
+  </si>
+  <si>
+    <t>Rec</t>
+  </si>
+  <si>
+    <t>DtH</t>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -155,6 +168,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2801,6 +2817,1857 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DC-DET'!$A$4:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DC-DET'!$D$4:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.10000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.21000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.40000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.36000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.9999999999999916E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.0000000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.9999999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.9999999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.9999999999999916E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1104-5740-A09E-E32342967D23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>F-Score</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DC-DET'!$A$4:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DC-DET'!$G$4:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9999999999999962E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9999999999999971E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0000000000000024E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.0000000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0000000000000027E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9999999999999979E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9999999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1104-5740-A09E-E32342967D23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1 - Norm DtH</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DC-DET'!$A$4:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DC-DET'!$J$4:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.9999999999999942E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.0000000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0000000000000044E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0000000000000053E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.9999999999999942E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1104-5740-A09E-E32342967D23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Precision</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DC-DET'!$A$4:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DC-DET'!$M$4:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-0.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0000000000000017E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.23999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.21000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-8.0000000000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.9999999999999962E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1104-5740-A09E-E32342967D23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Recall</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DC-DET'!$A$4:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DC-DET'!$P$4:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9999999999999942E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9999999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9999999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9999999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.10000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0000000000000024E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1104-5740-A09E-E32342967D23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1380524511"/>
+        <c:axId val="1380772799"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1380524511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1380772799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1380772799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1380524511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GC-DET'!$A$4:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GC-DET'!$D$4:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.33999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.9999999999999933E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.21999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9999999999999916E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6.0000000000000053E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.0000000000000027E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD5B-0743-A900-CE43DC7DCC6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GC-DET'!$A$4:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GC-DET'!$G$4:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0000000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9999999999999907E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.16999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0000000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.0000000000000062E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.9999999999999916E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.999999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD5B-0743-A900-CE43DC7DCC6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GC-DET'!$A$4:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GC-DET'!$J$4:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.0000000000000027E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0000000000000053E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.9999999999999942E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.0000000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9999999999999971E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9999999999999916E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0000000000000036E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BD5B-0743-A900-CE43DC7DCC6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GC-DET'!$A$4:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GC-DET'!$M$4:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.9999999999999969E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.11000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.22999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.9999999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9999999999999534E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.9999999999999925E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.0000000000000018E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BD5B-0743-A900-CE43DC7DCC6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'GC-DET'!$A$4:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>ONER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NB-CFS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NB-DTF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NB-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SVM-CFS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SVM-DTF</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CART</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CART-CFS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CART-DTF</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CART-SVMF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>RF-CFS</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RF-DTF</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RF-SVMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GC-DET'!$P$4:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9999999999999942E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.17999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0000000000000053E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.9999999999999978E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BD5B-0743-A900-CE43DC7DCC6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1391841567"/>
+        <c:axId val="1391507951"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1391841567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391507951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1391507951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391841567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2961,6 +4828,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4471,6 +6418,1012 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5117,6 +8070,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F8B734-14BA-364D-933A-B0935279362A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC20217-A4C5-AD47-AD50-1852205BA7CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D21E3B0B-231A-AB40-BF72-2EBA622C045C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5437,7 +8472,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection sqref="A1:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5446,21 +8481,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -6132,7 +9167,7 @@
         <v>0.45</v>
       </c>
       <c r="D22" s="5">
-        <f>C22-B22</f>
+        <f t="shared" ref="D22:D38" si="3">C22-B22</f>
         <v>-0.36000000000000004</v>
       </c>
       <c r="E22" s="3">
@@ -6142,7 +9177,7 @@
         <v>0.32</v>
       </c>
       <c r="G22" s="5">
-        <f>F22-E22</f>
+        <f t="shared" ref="G22:G38" si="4">F22-E22</f>
         <v>0.32</v>
       </c>
       <c r="H22" s="4">
@@ -6152,7 +9187,7 @@
         <v>0.39</v>
       </c>
       <c r="J22" s="5">
-        <f>I22-H22</f>
+        <f t="shared" ref="J22:J38" si="5">I22-H22</f>
         <v>0.10000000000000003</v>
       </c>
     </row>
@@ -6167,7 +9202,7 @@
         <v>0.41</v>
       </c>
       <c r="D23" s="5">
-        <f>C23-B23</f>
+        <f t="shared" si="3"/>
         <v>-0.40000000000000008</v>
       </c>
       <c r="E23" s="3">
@@ -6177,7 +9212,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G23" s="5">
-        <f>F23-E23</f>
+        <f t="shared" si="4"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="H23" s="4">
@@ -6187,7 +9222,7 @@
         <v>0.48</v>
       </c>
       <c r="J23" s="5">
-        <f>I23-H23</f>
+        <f t="shared" si="5"/>
         <v>0.19</v>
       </c>
     </row>
@@ -6202,7 +9237,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="D24" s="5">
-        <f>C24-B24</f>
+        <f t="shared" si="3"/>
         <v>-0.27</v>
       </c>
       <c r="E24" s="3">
@@ -6212,7 +9247,7 @@
         <v>0.43</v>
       </c>
       <c r="G24" s="5">
-        <f>F24-E24</f>
+        <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
       <c r="H24" s="4">
@@ -6222,7 +9257,7 @@
         <v>0.63</v>
       </c>
       <c r="J24" s="5">
-        <f>I24-H24</f>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
     </row>
@@ -6237,7 +9272,7 @@
         <v>0.81</v>
       </c>
       <c r="D25" s="5">
-        <f>C25-B25</f>
+        <f t="shared" si="3"/>
         <v>-2.9999999999999916E-2</v>
       </c>
       <c r="E25" s="3">
@@ -6247,7 +9282,7 @@
         <v>0.45</v>
       </c>
       <c r="G25" s="5">
-        <f>F25-E25</f>
+        <f t="shared" si="4"/>
         <v>0.12</v>
       </c>
       <c r="H25" s="4">
@@ -6257,7 +9292,7 @@
         <v>0.63</v>
       </c>
       <c r="J25" s="5">
-        <f>I25-H25</f>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
     </row>
@@ -6272,7 +9307,7 @@
         <v>0.73</v>
       </c>
       <c r="D26" s="5">
-        <f>C26-B26</f>
+        <f t="shared" si="3"/>
         <v>-0.10999999999999999</v>
       </c>
       <c r="E26" s="3">
@@ -6282,7 +9317,7 @@
         <v>0.4</v>
       </c>
       <c r="G26" s="5">
-        <f>F26-E26</f>
+        <f t="shared" si="4"/>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="H26" s="4">
@@ -6292,7 +9327,7 @@
         <v>0.62</v>
       </c>
       <c r="J26" s="5">
-        <f>I26-H26</f>
+        <f t="shared" si="5"/>
         <v>0.19</v>
       </c>
     </row>
@@ -6307,7 +9342,7 @@
         <v>0.74</v>
       </c>
       <c r="D27" s="5">
-        <f>C27-B27</f>
+        <f t="shared" si="3"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="E27" s="3">
@@ -6317,7 +9352,7 @@
         <v>0.4</v>
       </c>
       <c r="G27" s="5">
-        <f>F27-E27</f>
+        <f t="shared" si="4"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H27" s="4">
@@ -6327,7 +9362,7 @@
         <v>0.61</v>
       </c>
       <c r="J27" s="5">
-        <f>I27-H27</f>
+        <f t="shared" si="5"/>
         <v>0.18</v>
       </c>
     </row>
@@ -6342,7 +9377,7 @@
         <v>0.74</v>
       </c>
       <c r="D28" s="5">
-        <f>C28-B28</f>
+        <f t="shared" si="3"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="E28" s="3">
@@ -6352,7 +9387,7 @@
         <v>0.4</v>
       </c>
       <c r="G28" s="5">
-        <f>F28-E28</f>
+        <f t="shared" si="4"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H28" s="4">
@@ -6362,7 +9397,7 @@
         <v>0.62</v>
       </c>
       <c r="J28" s="5">
-        <f>I28-H28</f>
+        <f t="shared" si="5"/>
         <v>0.19</v>
       </c>
     </row>
@@ -6377,7 +9412,7 @@
         <v>0.75</v>
       </c>
       <c r="D29" s="5">
-        <f>C29-B29</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E29" s="3">
@@ -6387,7 +9422,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G29" s="5">
-        <f>F29-E29</f>
+        <f t="shared" si="4"/>
         <v>6.9999999999999979E-2</v>
       </c>
       <c r="H29" s="4">
@@ -6397,7 +9432,7 @@
         <v>0.49</v>
       </c>
       <c r="J29" s="5">
-        <f>I29-H29</f>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
     </row>
@@ -6412,7 +9447,7 @@
         <v>0.8</v>
       </c>
       <c r="D30" s="5">
-        <f>C30-B30</f>
+        <f t="shared" si="3"/>
         <v>-2.9999999999999916E-2</v>
       </c>
       <c r="E30" s="3">
@@ -6422,7 +9457,7 @@
         <v>0.46</v>
       </c>
       <c r="G30" s="5">
-        <f>F30-E30</f>
+        <f t="shared" si="4"/>
         <v>0.06</v>
       </c>
       <c r="H30" s="4">
@@ -6432,7 +9467,7 @@
         <v>0.6</v>
       </c>
       <c r="J30" s="5">
-        <f>I30-H30</f>
+        <f t="shared" si="5"/>
         <v>5.9999999999999942E-2</v>
       </c>
     </row>
@@ -6447,7 +9482,7 @@
         <v>0.77</v>
       </c>
       <c r="D31" s="5">
-        <f>C31-B31</f>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="E31" s="3">
@@ -6457,7 +9492,7 @@
         <v>0.38</v>
       </c>
       <c r="G31" s="5">
-        <f>F31-E31</f>
+        <f t="shared" si="4"/>
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="H31" s="4">
@@ -6467,7 +9502,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="J31" s="5">
-        <f>I31-H31</f>
+        <f t="shared" si="5"/>
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
@@ -6482,7 +9517,7 @@
         <v>0.79</v>
       </c>
       <c r="D32" s="5">
-        <f>C32-B32</f>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="E32" s="3">
@@ -6492,7 +9527,7 @@
         <v>0.44</v>
       </c>
       <c r="G32" s="5">
-        <f>F32-E32</f>
+        <f t="shared" si="4"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="H32" s="4">
@@ -6502,7 +9537,7 @@
         <v>0.61</v>
       </c>
       <c r="J32" s="5">
-        <f>I32-H32</f>
+        <f t="shared" si="5"/>
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
@@ -6517,7 +9552,7 @@
         <v>0.79</v>
       </c>
       <c r="D33" s="5">
-        <f>C33-B33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E33" s="3">
@@ -6527,7 +9562,7 @@
         <v>0.45</v>
       </c>
       <c r="G33" s="5">
-        <f>F33-E33</f>
+        <f t="shared" si="4"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="H33" s="4">
@@ -6537,7 +9572,7 @@
         <v>0.62</v>
       </c>
       <c r="J33" s="5">
-        <f>I33-H33</f>
+        <f t="shared" si="5"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -6552,7 +9587,7 @@
         <v>0.74</v>
       </c>
       <c r="D34" s="5">
-        <f>C34-B34</f>
+        <f t="shared" si="3"/>
         <v>-7.999999999999996E-2</v>
       </c>
       <c r="E34" s="3">
@@ -6562,7 +9597,7 @@
         <v>0.3</v>
       </c>
       <c r="G34" s="5">
-        <f>F34-E34</f>
+        <f t="shared" si="4"/>
         <v>2.9999999999999971E-2</v>
       </c>
       <c r="H34" s="4">
@@ -6572,7 +9607,7 @@
         <v>0.49</v>
       </c>
       <c r="J34" s="5">
-        <f>I34-H34</f>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
     </row>
@@ -6587,7 +9622,7 @@
         <v>0.67</v>
       </c>
       <c r="D35" s="5">
-        <f>C35-B35</f>
+        <f t="shared" si="3"/>
         <v>-0.14000000000000001</v>
       </c>
       <c r="E35" s="3">
@@ -6597,7 +9632,7 @@
         <v>0.32</v>
       </c>
       <c r="G35" s="5">
-        <f>F35-E35</f>
+        <f t="shared" si="4"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="H35" s="4">
@@ -6607,7 +9642,7 @@
         <v>0.51</v>
       </c>
       <c r="J35" s="5">
-        <f>I35-H35</f>
+        <f t="shared" si="5"/>
         <v>8.0000000000000016E-2</v>
       </c>
     </row>
@@ -6622,7 +9657,7 @@
         <v>0.46</v>
       </c>
       <c r="D36" s="5">
-        <f>C36-B36</f>
+        <f t="shared" si="3"/>
         <v>-0.10000000000000003</v>
       </c>
       <c r="E36" s="3">
@@ -6632,7 +9667,7 @@
         <v>0.33</v>
       </c>
       <c r="G36" s="5">
-        <f>F36-E36</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H36" s="4">
@@ -6642,7 +9677,7 @@
         <v>0.52</v>
       </c>
       <c r="J36" s="5">
-        <f>I36-H36</f>
+        <f t="shared" si="5"/>
         <v>-5.9999999999999942E-2</v>
       </c>
     </row>
@@ -6657,7 +9692,7 @@
         <v>0.75</v>
       </c>
       <c r="D37" s="5">
-        <f>C37-B37</f>
+        <f t="shared" si="3"/>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="E37" s="3">
@@ -6667,7 +9702,7 @@
         <v>0.35</v>
       </c>
       <c r="G37" s="5">
-        <f>F37-E37</f>
+        <f t="shared" si="4"/>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="H37" s="4">
@@ -6677,7 +9712,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J37" s="5">
-        <f>I37-H37</f>
+        <f t="shared" si="5"/>
         <v>-1.0000000000000009E-2</v>
       </c>
     </row>
@@ -6692,7 +9727,7 @@
         <v>0.43</v>
       </c>
       <c r="D38" s="5">
-        <f>C38-B38</f>
+        <f t="shared" si="3"/>
         <v>-0.21000000000000002</v>
       </c>
       <c r="E38" s="3">
@@ -6702,7 +9737,7 @@
         <v>0.33</v>
       </c>
       <c r="G38" s="5">
-        <f>F38-E38</f>
+        <f t="shared" si="4"/>
         <v>-1.9999999999999962E-2</v>
       </c>
       <c r="H38" s="4">
@@ -6712,7 +9747,7 @@
         <v>0.51</v>
       </c>
       <c r="J38" s="5">
-        <f>I38-H38</f>
+        <f t="shared" si="5"/>
         <v>-4.0000000000000036E-2</v>
       </c>
     </row>
@@ -6742,21 +9777,21 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -7429,7 +10464,7 @@
         <v>0.67</v>
       </c>
       <c r="D22" s="5">
-        <f>C22-B22</f>
+        <f t="shared" ref="D22:D38" si="3">C22-B22</f>
         <v>-4.9999999999999933E-2</v>
       </c>
       <c r="E22" s="3">
@@ -7439,7 +10474,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G22" s="5">
-        <f>F22-E22</f>
+        <f t="shared" ref="G22:G38" si="4">F22-E22</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="H22" s="4">
@@ -7449,7 +10484,7 @@
         <v>0.7</v>
       </c>
       <c r="J22" s="5">
-        <f>I22-H22</f>
+        <f t="shared" ref="J22:J38" si="5">I22-H22</f>
         <v>0.41</v>
       </c>
     </row>
@@ -7464,7 +10499,7 @@
         <v>0.5</v>
       </c>
       <c r="D23" s="5">
-        <f>C23-B23</f>
+        <f t="shared" si="3"/>
         <v>-0.21999999999999997</v>
       </c>
       <c r="E23" s="3">
@@ -7474,7 +10509,7 @@
         <v>0.5</v>
       </c>
       <c r="G23" s="5">
-        <f>F23-E23</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="H23" s="4">
@@ -7484,7 +10519,7 @@
         <v>0.52</v>
       </c>
       <c r="J23" s="5">
-        <f>I23-H23</f>
+        <f t="shared" si="5"/>
         <v>0.23000000000000004</v>
       </c>
     </row>
@@ -7499,7 +10534,7 @@
         <v>0.38</v>
       </c>
       <c r="D24" s="5">
-        <f>C24-B24</f>
+        <f t="shared" si="3"/>
         <v>-0.33999999999999997</v>
       </c>
       <c r="E24" s="3">
@@ -7509,7 +10544,7 @@
         <v>0.36</v>
       </c>
       <c r="G24" s="5">
-        <f>F24-E24</f>
+        <f t="shared" si="4"/>
         <v>0.36</v>
       </c>
       <c r="H24" s="4">
@@ -7519,7 +10554,7 @@
         <v>0.44</v>
       </c>
       <c r="J24" s="5">
-        <f>I24-H24</f>
+        <f t="shared" si="5"/>
         <v>0.15000000000000002</v>
       </c>
     </row>
@@ -7534,7 +10569,7 @@
         <v>0.82</v>
       </c>
       <c r="D25" s="5">
-        <f>C25-B25</f>
+        <f t="shared" si="3"/>
         <v>2.9999999999999916E-2</v>
       </c>
       <c r="E25" s="3">
@@ -7544,7 +10579,7 @@
         <v>0.64</v>
       </c>
       <c r="G25" s="5">
-        <f>F25-E25</f>
+        <f t="shared" si="4"/>
         <v>0.19</v>
       </c>
       <c r="H25" s="4">
@@ -7554,7 +10589,7 @@
         <v>0.71</v>
       </c>
       <c r="J25" s="5">
-        <f>I25-H25</f>
+        <f t="shared" si="5"/>
         <v>0.16999999999999993</v>
       </c>
     </row>
@@ -7569,7 +10604,7 @@
         <v>0.64</v>
       </c>
       <c r="D26" s="5">
-        <f>C26-B26</f>
+        <f t="shared" si="3"/>
         <v>-7.999999999999996E-2</v>
       </c>
       <c r="E26" s="3">
@@ -7579,7 +10614,7 @@
         <v>0.52</v>
       </c>
       <c r="G26" s="5">
-        <f>F26-E26</f>
+        <f t="shared" si="4"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H26" s="4">
@@ -7589,7 +10624,7 @@
         <v>0.62</v>
       </c>
       <c r="J26" s="5">
-        <f>I26-H26</f>
+        <f t="shared" si="5"/>
         <v>7.999999999999996E-2</v>
       </c>
     </row>
@@ -7604,7 +10639,7 @@
         <v>0.62</v>
       </c>
       <c r="D27" s="5">
-        <f>C27-B27</f>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="E27" s="3">
@@ -7614,7 +10649,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G27" s="5">
-        <f>F27-E27</f>
+        <f t="shared" si="4"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="H27" s="4">
@@ -7624,7 +10659,7 @@
         <v>0.47</v>
       </c>
       <c r="J27" s="5">
-        <f>I27-H27</f>
+        <f t="shared" si="5"/>
         <v>2.9999999999999971E-2</v>
       </c>
     </row>
@@ -7639,7 +10674,7 @@
         <v>0.72</v>
       </c>
       <c r="D28" s="5">
-        <f>C28-B28</f>
+        <f t="shared" si="3"/>
         <v>-3.0000000000000027E-2</v>
       </c>
       <c r="E28" s="3">
@@ -7649,7 +10684,7 @@
         <v>0.48</v>
       </c>
       <c r="G28" s="5">
-        <f>F28-E28</f>
+        <f t="shared" si="4"/>
         <v>3.999999999999998E-2</v>
       </c>
       <c r="H28" s="4">
@@ -7659,7 +10694,7 @@
         <v>0.61</v>
       </c>
       <c r="J28" s="5">
-        <f>I28-H28</f>
+        <f t="shared" si="5"/>
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
@@ -7674,7 +10709,7 @@
         <v>0.74</v>
       </c>
       <c r="D29" s="5">
-        <f>C29-B29</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E29" s="3">
@@ -7684,7 +10719,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G29" s="5">
-        <f>F29-E29</f>
+        <f t="shared" si="4"/>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="H29" s="4">
@@ -7694,7 +10729,7 @@
         <v>0.71</v>
       </c>
       <c r="J29" s="5">
-        <f>I29-H29</f>
+        <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -7709,7 +10744,7 @@
         <v>0.72</v>
       </c>
       <c r="D30" s="5">
-        <f>C30-B30</f>
+        <f t="shared" si="3"/>
         <v>-6.0000000000000053E-2</v>
       </c>
       <c r="E30" s="3">
@@ -7719,7 +10754,7 @@
         <v>0.51</v>
       </c>
       <c r="G30" s="5">
-        <f>F30-E30</f>
+        <f t="shared" si="4"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="H30" s="4">
@@ -7729,7 +10764,7 @@
         <v>0.65</v>
       </c>
       <c r="J30" s="5">
-        <f>I30-H30</f>
+        <f t="shared" si="5"/>
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
@@ -7744,7 +10779,7 @@
         <v>0.78</v>
       </c>
       <c r="D31" s="5">
-        <f>C31-B31</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E31" s="3">
@@ -7754,7 +10789,7 @@
         <v>0.68</v>
       </c>
       <c r="G31" s="5">
-        <f>F31-E31</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H31" s="4">
@@ -7764,7 +10799,7 @@
         <v>0.8</v>
       </c>
       <c r="J31" s="5">
-        <f>I31-H31</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7779,7 +10814,7 @@
         <v>0.6</v>
       </c>
       <c r="D32" s="5">
-        <f>C32-B32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E32" s="3">
@@ -7789,7 +10824,7 @@
         <v>0.22</v>
       </c>
       <c r="G32" s="5">
-        <f>F32-E32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H32" s="4">
@@ -7799,7 +10834,7 @@
         <v>0.42</v>
       </c>
       <c r="J32" s="5">
-        <f>I32-H32</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7814,7 +10849,7 @@
         <v>0.76</v>
       </c>
       <c r="D33" s="5">
-        <f>C33-B33</f>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="E33" s="3">
@@ -7824,7 +10859,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G33" s="5">
-        <f>F33-E33</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H33" s="4">
@@ -7834,7 +10869,7 @@
         <v>0.69</v>
       </c>
       <c r="J33" s="5">
-        <f>I33-H33</f>
+        <f t="shared" si="5"/>
         <v>2.9999999999999916E-2</v>
       </c>
     </row>
@@ -7849,7 +10884,7 @@
         <v>0.74</v>
       </c>
       <c r="D34" s="5">
-        <f>C34-B34</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E34" s="3">
@@ -7859,7 +10894,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G34" s="5">
-        <f>F34-E34</f>
+        <f t="shared" si="4"/>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="H34" s="4">
@@ -7869,7 +10904,7 @@
         <v>0.72</v>
       </c>
       <c r="J34" s="5">
-        <f>I34-H34</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7884,7 +10919,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="D35" s="5">
-        <f>C35-B35</f>
+        <f t="shared" si="3"/>
         <v>-0.15000000000000002</v>
       </c>
       <c r="E35" s="3">
@@ -7894,7 +10929,7 @@
         <v>0.49</v>
       </c>
       <c r="G35" s="5">
-        <f>F35-E35</f>
+        <f t="shared" si="4"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="H35" s="4">
@@ -7904,7 +10939,7 @@
         <v>0.59</v>
       </c>
       <c r="J35" s="5">
-        <f>I35-H35</f>
+        <f t="shared" si="5"/>
         <v>-3.0000000000000027E-2</v>
       </c>
     </row>
@@ -7919,7 +10954,7 @@
         <v>0.75</v>
       </c>
       <c r="D36" s="5">
-        <f>C36-B36</f>
+        <f t="shared" si="3"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="E36" s="3">
@@ -7929,7 +10964,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G36" s="5">
-        <f>F36-E36</f>
+        <f t="shared" si="4"/>
         <v>-2.9999999999999916E-2</v>
       </c>
       <c r="H36" s="4">
@@ -7939,7 +10974,7 @@
         <v>0.66</v>
       </c>
       <c r="J36" s="5">
-        <f>I36-H36</f>
+        <f t="shared" si="5"/>
         <v>-1.0000000000000009E-2</v>
       </c>
     </row>
@@ -7954,7 +10989,7 @@
         <v>0.84</v>
       </c>
       <c r="D37" s="5">
-        <f>C37-B37</f>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="E37" s="3">
@@ -7964,7 +10999,7 @@
         <v>0.69</v>
       </c>
       <c r="G37" s="5">
-        <f>F37-E37</f>
+        <f t="shared" si="4"/>
         <v>-7.0000000000000062E-2</v>
       </c>
       <c r="H37" s="4">
@@ -7974,7 +11009,7 @@
         <v>0.78</v>
       </c>
       <c r="J37" s="5">
-        <f>I37-H37</f>
+        <f t="shared" si="5"/>
         <v>-5.9999999999999942E-2</v>
       </c>
     </row>
@@ -7989,7 +11024,7 @@
         <v>0.75</v>
       </c>
       <c r="D38" s="5">
-        <f>C38-B38</f>
+        <f t="shared" si="3"/>
         <v>-0.10999999999999999</v>
       </c>
       <c r="E38" s="3">
@@ -7999,7 +11034,7 @@
         <v>0.52</v>
       </c>
       <c r="G38" s="5">
-        <f>F38-E38</f>
+        <f t="shared" si="4"/>
         <v>-0.16999999999999993</v>
       </c>
       <c r="H38" s="4">
@@ -8009,7 +11044,7 @@
         <v>0.63</v>
       </c>
       <c r="J38" s="5">
-        <f>I38-H38</f>
+        <f t="shared" si="5"/>
         <v>-0.15000000000000002</v>
       </c>
     </row>
@@ -8039,21 +11074,21 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -8726,7 +11761,7 @@
         <v>0.67</v>
       </c>
       <c r="D22" s="5">
-        <f>C22-B22</f>
+        <f t="shared" ref="D22:D38" si="3">C22-B22</f>
         <v>-5.9999999999999942E-2</v>
       </c>
       <c r="E22" s="3">
@@ -8736,7 +11771,7 @@
         <v>0.36</v>
       </c>
       <c r="G22" s="5">
-        <f>F22-E22</f>
+        <f t="shared" ref="G22:G38" si="4">F22-E22</f>
         <v>0.36</v>
       </c>
       <c r="H22" s="4">
@@ -8746,7 +11781,7 @@
         <v>0.47</v>
       </c>
       <c r="J22" s="5">
-        <f>I22-H22</f>
+        <f t="shared" ref="J22:J38" si="5">I22-H22</f>
         <v>0.18</v>
       </c>
     </row>
@@ -8761,7 +11796,7 @@
         <v>0.65</v>
       </c>
       <c r="D23" s="5">
-        <f>C23-B23</f>
+        <f t="shared" si="3"/>
         <v>-6.9999999999999951E-2</v>
       </c>
       <c r="E23" s="3">
@@ -8771,7 +11806,7 @@
         <v>0.48</v>
       </c>
       <c r="G23" s="5">
-        <f>F23-E23</f>
+        <f t="shared" si="4"/>
         <v>0.35</v>
       </c>
       <c r="H23" s="4">
@@ -8781,7 +11816,7 @@
         <v>0.65</v>
       </c>
       <c r="J23" s="5">
-        <f>I23-H23</f>
+        <f t="shared" si="5"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
@@ -8796,7 +11831,7 @@
         <v>0.65</v>
       </c>
       <c r="D24" s="5">
-        <f>C24-B24</f>
+        <f t="shared" si="3"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="E24" s="3">
@@ -8806,7 +11841,7 @@
         <v>0.43</v>
       </c>
       <c r="G24" s="5">
-        <f>F24-E24</f>
+        <f t="shared" si="4"/>
         <v>0.33999999999999997</v>
       </c>
       <c r="H24" s="4">
@@ -8816,7 +11851,7 @@
         <v>0.6</v>
       </c>
       <c r="J24" s="5">
-        <f>I24-H24</f>
+        <f t="shared" si="5"/>
         <v>0.27999999999999997</v>
       </c>
     </row>
@@ -8831,7 +11866,7 @@
         <v>0.54</v>
       </c>
       <c r="D25" s="5">
-        <f>C25-B25</f>
+        <f t="shared" si="3"/>
         <v>-4.9999999999999933E-2</v>
       </c>
       <c r="E25" s="3">
@@ -8841,7 +11876,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G25" s="5">
-        <f>F25-E25</f>
+        <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="H25" s="4">
@@ -8851,7 +11886,7 @@
         <v>0.46</v>
       </c>
       <c r="J25" s="5">
-        <f>I25-H25</f>
+        <f t="shared" si="5"/>
         <v>0.19</v>
       </c>
     </row>
@@ -8866,7 +11901,7 @@
         <v>0.69</v>
       </c>
       <c r="D26" s="5">
-        <f>C26-B26</f>
+        <f t="shared" si="3"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="E26" s="3">
@@ -8876,7 +11911,7 @@
         <v>0.52</v>
       </c>
       <c r="G26" s="5">
-        <f>F26-E26</f>
+        <f t="shared" si="4"/>
         <v>0.19</v>
       </c>
       <c r="H26" s="4">
@@ -8886,7 +11921,7 @@
         <v>0.68</v>
       </c>
       <c r="J26" s="5">
-        <f>I26-H26</f>
+        <f t="shared" si="5"/>
         <v>0.20000000000000007</v>
       </c>
     </row>
@@ -8901,7 +11936,7 @@
         <v>0.67</v>
       </c>
       <c r="D27" s="5">
-        <f>C27-B27</f>
+        <f t="shared" si="3"/>
         <v>-3.9999999999999925E-2</v>
       </c>
       <c r="E27" s="3">
@@ -8911,7 +11946,7 @@
         <v>0.33</v>
       </c>
       <c r="G27" s="5">
-        <f>F27-E27</f>
+        <f t="shared" si="4"/>
         <v>0.18000000000000002</v>
       </c>
       <c r="H27" s="4">
@@ -8921,7 +11956,7 @@
         <v>0.42</v>
       </c>
       <c r="J27" s="5">
-        <f>I27-H27</f>
+        <f t="shared" si="5"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -8936,7 +11971,7 @@
         <v>0.63</v>
       </c>
       <c r="D28" s="5">
-        <f>C28-B28</f>
+        <f t="shared" si="3"/>
         <v>-6.9999999999999951E-2</v>
       </c>
       <c r="E28" s="3">
@@ -8946,7 +11981,7 @@
         <v>0.3</v>
       </c>
       <c r="G28" s="5">
-        <f>F28-E28</f>
+        <f t="shared" si="4"/>
         <v>0.16999999999999998</v>
       </c>
       <c r="H28" s="4">
@@ -8956,7 +11991,7 @@
         <v>0.47</v>
       </c>
       <c r="J28" s="5">
-        <f>I28-H28</f>
+        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
     </row>
@@ -8971,7 +12006,7 @@
         <v>0.59</v>
       </c>
       <c r="D29" s="5">
-        <f>C29-B29</f>
+        <f t="shared" si="3"/>
         <v>-0.10999999999999999</v>
       </c>
       <c r="E29" s="3">
@@ -8981,7 +12016,7 @@
         <v>0.27</v>
       </c>
       <c r="G29" s="5">
-        <f>F29-E29</f>
+        <f t="shared" si="4"/>
         <v>0.16000000000000003</v>
       </c>
       <c r="H29" s="4">
@@ -8991,7 +12026,7 @@
         <v>0.44</v>
       </c>
       <c r="J29" s="5">
-        <f>I29-H29</f>
+        <f t="shared" si="5"/>
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
@@ -9006,7 +12041,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" s="5">
-        <f>C30-B30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E30" s="3">
@@ -9016,7 +12051,7 @@
         <v>0.22</v>
       </c>
       <c r="G30" s="5">
-        <f>F30-E30</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="H30" s="4">
@@ -9026,7 +12061,7 @@
         <v>0.42</v>
       </c>
       <c r="J30" s="5">
-        <f>I30-H30</f>
+        <f t="shared" si="5"/>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -9041,7 +12076,7 @@
         <v>0.76</v>
       </c>
       <c r="D31" s="5">
-        <f>C31-B31</f>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="E31" s="3">
@@ -9051,7 +12086,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G31" s="5">
-        <f>F31-E31</f>
+        <f t="shared" si="4"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="H31" s="4">
@@ -9061,7 +12096,7 @@
         <v>0.69</v>
       </c>
       <c r="J31" s="5">
-        <f>I31-H31</f>
+        <f t="shared" si="5"/>
         <v>7.999999999999996E-2</v>
       </c>
     </row>
@@ -9076,7 +12111,7 @@
         <v>0.63</v>
       </c>
       <c r="D32" s="5">
-        <f>C32-B32</f>
+        <f t="shared" si="3"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="E32" s="3">
@@ -9086,7 +12121,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G32" s="5">
-        <f>F32-E32</f>
+        <f t="shared" si="4"/>
         <v>7.0000000000000034E-2</v>
       </c>
       <c r="H32" s="4">
@@ -9096,7 +12131,7 @@
         <v>0.46</v>
       </c>
       <c r="J32" s="5">
-        <f>I32-H32</f>
+        <f t="shared" si="5"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -9111,7 +12146,7 @@
         <v>0.59</v>
       </c>
       <c r="D33" s="5">
-        <f>C33-B33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E33" s="3">
@@ -9121,7 +12156,7 @@
         <v>0.22</v>
       </c>
       <c r="G33" s="5">
-        <f>F33-E33</f>
+        <f t="shared" si="4"/>
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="H33" s="4">
@@ -9131,7 +12166,7 @@
         <v>0.42</v>
       </c>
       <c r="J33" s="5">
-        <f>I33-H33</f>
+        <f t="shared" si="5"/>
         <v>3.999999999999998E-2</v>
       </c>
     </row>
@@ -9146,7 +12181,7 @@
         <v>0.59</v>
       </c>
       <c r="D34" s="5">
-        <f>C34-B34</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E34" s="3">
@@ -9156,7 +12191,7 @@
         <v>0.16</v>
       </c>
       <c r="G34" s="5">
-        <f>F34-E34</f>
+        <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
       <c r="H34" s="4">
@@ -9166,7 +12201,7 @@
         <v>0.37</v>
       </c>
       <c r="J34" s="5">
-        <f>I34-H34</f>
+        <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -9181,7 +12216,7 @@
         <v>0.59</v>
       </c>
       <c r="D35" s="5">
-        <f>C35-B35</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E35" s="3">
@@ -9191,7 +12226,7 @@
         <v>0.11</v>
       </c>
       <c r="G35" s="5">
-        <f>F35-E35</f>
+        <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
       <c r="H35" s="4">
@@ -9201,7 +12236,7 @@
         <v>0.34</v>
       </c>
       <c r="J35" s="5">
-        <f>I35-H35</f>
+        <f t="shared" si="5"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -9216,7 +12251,7 @@
         <v>0.59</v>
       </c>
       <c r="D36" s="5">
-        <f>C36-B36</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E36" s="3">
@@ -9226,7 +12261,7 @@
         <v>0.11</v>
       </c>
       <c r="G36" s="5">
-        <f>F36-E36</f>
+        <f t="shared" si="4"/>
         <v>9.999999999999995E-3</v>
       </c>
       <c r="H36" s="4">
@@ -9236,7 +12271,7 @@
         <v>0.34</v>
       </c>
       <c r="J36" s="5">
-        <f>I36-H36</f>
+        <f t="shared" si="5"/>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
@@ -9251,7 +12286,7 @@
         <v>0.78</v>
       </c>
       <c r="D37" s="5">
-        <f>C37-B37</f>
+        <f t="shared" si="3"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="E37" s="3">
@@ -9261,7 +12296,7 @@
         <v>0.69</v>
       </c>
       <c r="G37" s="5">
-        <f>F37-E37</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H37" s="4">
@@ -9271,7 +12306,7 @@
         <v>0.8</v>
       </c>
       <c r="J37" s="5">
-        <f>I37-H37</f>
+        <f t="shared" si="5"/>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
@@ -9286,7 +12321,7 @@
         <v>0.74</v>
       </c>
       <c r="D38" s="5">
-        <f>C38-B38</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E38" s="3">
@@ -9296,7 +12331,7 @@
         <v>0.48</v>
       </c>
       <c r="G38" s="5">
-        <f>F38-E38</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H38" s="4">
@@ -9306,7 +12341,7 @@
         <v>0.61</v>
       </c>
       <c r="J38" s="5">
-        <f>I38-H38</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9328,7 +12363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42D5048-71B2-224F-AEBA-5515FA8D1280}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -9336,21 +12371,21 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -10023,7 +13058,7 @@
         <v>0.48</v>
       </c>
       <c r="D22" s="5">
-        <f>C22-B22</f>
+        <f t="shared" ref="D22:D38" si="3">C22-B22</f>
         <v>-0.28000000000000003</v>
       </c>
       <c r="E22" s="3">
@@ -10033,7 +13068,7 @@
         <v>0.32</v>
       </c>
       <c r="G22" s="5">
-        <f>F22-E22</f>
+        <f t="shared" ref="G22:G38" si="4">F22-E22</f>
         <v>0.32</v>
       </c>
       <c r="H22" s="4">
@@ -10043,7 +13078,7 @@
         <v>0.52</v>
       </c>
       <c r="J22" s="5">
-        <f>I22-H22</f>
+        <f t="shared" ref="J22:J38" si="5">I22-H22</f>
         <v>0.23000000000000004</v>
       </c>
     </row>
@@ -10058,7 +13093,7 @@
         <v>0.54</v>
       </c>
       <c r="D23" s="5">
-        <f>C23-B23</f>
+        <f t="shared" si="3"/>
         <v>-0.25</v>
       </c>
       <c r="E23" s="3">
@@ -10068,7 +13103,7 @@
         <v>0.27</v>
       </c>
       <c r="G23" s="5">
-        <f>F23-E23</f>
+        <f t="shared" si="4"/>
         <v>0.27</v>
       </c>
       <c r="H23" s="4">
@@ -10078,7 +13113,7 @@
         <v>0.48</v>
       </c>
       <c r="J23" s="5">
-        <f>I23-H23</f>
+        <f t="shared" si="5"/>
         <v>0.19</v>
       </c>
     </row>
@@ -10093,7 +13128,7 @@
         <v>0.5</v>
       </c>
       <c r="D24" s="5">
-        <f>C24-B24</f>
+        <f t="shared" si="3"/>
         <v>-0.29000000000000004</v>
       </c>
       <c r="E24" s="3">
@@ -10103,7 +13138,7 @@
         <v>0.26</v>
       </c>
       <c r="G24" s="5">
-        <f>F24-E24</f>
+        <f t="shared" si="4"/>
         <v>0.26</v>
       </c>
       <c r="H24" s="4">
@@ -10113,7 +13148,7 @@
         <v>0.44</v>
       </c>
       <c r="J24" s="5">
-        <f>I24-H24</f>
+        <f t="shared" si="5"/>
         <v>0.15000000000000002</v>
       </c>
     </row>
@@ -10128,7 +13163,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="D25" s="5">
-        <f>C25-B25</f>
+        <f t="shared" si="3"/>
         <v>-0.22000000000000008</v>
       </c>
       <c r="E25" s="3">
@@ -10138,7 +13173,7 @@
         <v>0.23</v>
       </c>
       <c r="G25" s="5">
-        <f>F25-E25</f>
+        <f t="shared" si="4"/>
         <v>0.23</v>
       </c>
       <c r="H25" s="4">
@@ -10148,7 +13183,7 @@
         <v>0.45</v>
       </c>
       <c r="J25" s="5">
-        <f>I25-H25</f>
+        <f t="shared" si="5"/>
         <v>0.16000000000000003</v>
       </c>
     </row>
@@ -10163,7 +13198,7 @@
         <v>0.44</v>
       </c>
       <c r="D26" s="5">
-        <f>C26-B26</f>
+        <f t="shared" si="3"/>
         <v>-0.24999999999999994</v>
       </c>
       <c r="E26" s="3">
@@ -10173,7 +13208,7 @@
         <v>0.32</v>
       </c>
       <c r="G26" s="5">
-        <f>F26-E26</f>
+        <f t="shared" si="4"/>
         <v>0.19</v>
       </c>
       <c r="H26" s="4">
@@ -10183,7 +13218,7 @@
         <v>0.48</v>
       </c>
       <c r="J26" s="5">
-        <f>I26-H26</f>
+        <f t="shared" si="5"/>
         <v>0.13999999999999996</v>
       </c>
     </row>
@@ -10198,7 +13233,7 @@
         <v>0.59</v>
       </c>
       <c r="D27" s="5">
-        <f>C27-B27</f>
+        <f t="shared" si="3"/>
         <v>-0.19000000000000006</v>
       </c>
       <c r="E27" s="3">
@@ -10208,7 +13243,7 @@
         <v>0.19</v>
       </c>
       <c r="G27" s="5">
-        <f>F27-E27</f>
+        <f t="shared" si="4"/>
         <v>0.19</v>
       </c>
       <c r="H27" s="4">
@@ -10218,7 +13253,7 @@
         <v>0.41</v>
       </c>
       <c r="J27" s="5">
-        <f>I27-H27</f>
+        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
     </row>
@@ -10233,7 +13268,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="D28" s="5">
-        <f>C28-B28</f>
+        <f t="shared" si="3"/>
         <v>-0.21000000000000008</v>
       </c>
       <c r="E28" s="3">
@@ -10243,7 +13278,7 @@
         <v>0.19</v>
       </c>
       <c r="G28" s="5">
-        <f>F28-E28</f>
+        <f t="shared" si="4"/>
         <v>0.19</v>
       </c>
       <c r="H28" s="4">
@@ -10253,7 +13288,7 @@
         <v>0.41</v>
       </c>
       <c r="J28" s="5">
-        <f>I28-H28</f>
+        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
     </row>
@@ -10268,7 +13303,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" s="5">
-        <f>C29-B29</f>
+        <f t="shared" si="3"/>
         <v>-0.17000000000000004</v>
       </c>
       <c r="E29" s="3">
@@ -10278,7 +13313,7 @@
         <v>0.15</v>
       </c>
       <c r="G29" s="5">
-        <f>F29-E29</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="H29" s="4">
@@ -10288,7 +13323,7 @@
         <v>0.37</v>
       </c>
       <c r="J29" s="5">
-        <f>I29-H29</f>
+        <f t="shared" si="5"/>
         <v>8.9999999999999969E-2</v>
       </c>
     </row>
@@ -10303,7 +13338,7 @@
         <v>0.48</v>
       </c>
       <c r="D30" s="5">
-        <f>C30-B30</f>
+        <f t="shared" si="3"/>
         <v>-0.19000000000000006</v>
       </c>
       <c r="E30" s="3">
@@ -10313,7 +13348,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G30" s="5">
-        <f>F30-E30</f>
+        <f t="shared" si="4"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="H30" s="4">
@@ -10323,7 +13358,7 @@
         <v>0.35</v>
       </c>
       <c r="J30" s="5">
-        <f>I30-H30</f>
+        <f t="shared" si="5"/>
         <v>6.9999999999999951E-2</v>
       </c>
     </row>
@@ -10338,7 +13373,7 @@
         <v>0.42</v>
       </c>
       <c r="D31" s="5">
-        <f>C31-B31</f>
+        <f t="shared" si="3"/>
         <v>-0.32</v>
       </c>
       <c r="E31" s="3">
@@ -10348,7 +13383,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G31" s="5">
-        <f>F31-E31</f>
+        <f t="shared" si="4"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="H31" s="4">
@@ -10358,7 +13393,7 @@
         <v>0.42</v>
       </c>
       <c r="J31" s="5">
-        <f>I31-H31</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10373,7 +13408,7 @@
         <v>0.67</v>
       </c>
       <c r="D32" s="5">
-        <f>C32-B32</f>
+        <f t="shared" si="3"/>
         <v>-3.9999999999999925E-2</v>
       </c>
       <c r="E32" s="3">
@@ -10383,7 +13418,7 @@
         <v>0.25</v>
       </c>
       <c r="G32" s="5">
-        <f>F32-E32</f>
+        <f t="shared" si="4"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="H32" s="4">
@@ -10393,7 +13428,7 @@
         <v>0.44</v>
       </c>
       <c r="J32" s="5">
-        <f>I32-H32</f>
+        <f t="shared" si="5"/>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
@@ -10408,7 +13443,7 @@
         <v>0.6</v>
       </c>
       <c r="D33" s="5">
-        <f>C33-B33</f>
+        <f t="shared" si="3"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="E33" s="3">
@@ -10418,7 +13453,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="5">
-        <f>F33-E33</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H33" s="4">
@@ -10428,7 +13463,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="J33" s="5">
-        <f>I33-H33</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10443,7 +13478,7 @@
         <v>0.61</v>
       </c>
       <c r="D34" s="5">
-        <f>C34-B34</f>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="E34" s="3">
@@ -10453,7 +13488,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="5">
-        <f>F34-E34</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H34" s="4">
@@ -10463,7 +13498,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="J34" s="5">
-        <f>I34-H34</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10478,7 +13513,7 @@
         <v>0.67</v>
       </c>
       <c r="D35" s="5">
-        <f>C35-B35</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E35" s="3">
@@ -10488,7 +13523,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="5">
-        <f>F35-E35</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H35" s="4">
@@ -10498,7 +13533,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="J35" s="5">
-        <f>I35-H35</f>
+        <f t="shared" si="5"/>
         <v>9.9999999999999534E-3</v>
       </c>
     </row>
@@ -10513,7 +13548,7 @@
         <v>0.63</v>
       </c>
       <c r="D36" s="5">
-        <f>C36-B36</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E36" s="3">
@@ -10523,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="5">
-        <f>F36-E36</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H36" s="4">
@@ -10533,7 +13568,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="J36" s="5">
-        <f>I36-H36</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10548,7 +13583,7 @@
         <v>0.61</v>
       </c>
       <c r="D37" s="5">
-        <f>C37-B37</f>
+        <f t="shared" si="3"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="E37" s="3">
@@ -10558,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="5">
-        <f>F37-E37</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H37" s="4">
@@ -10568,7 +13603,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="J37" s="5">
-        <f>I37-H37</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10583,7 +13618,7 @@
         <v>0.63</v>
       </c>
       <c r="D38" s="5">
-        <f>C38-B38</f>
+        <f t="shared" si="3"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="E38" s="3">
@@ -10593,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="5">
-        <f>F38-E38</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H38" s="4">
@@ -10603,7 +13638,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="J38" s="5">
-        <f>I38-H38</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10619,4 +13654,3326 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5498892-7A66-6C47-9640-2554789C0A5D}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="G3" s="5">
+        <f>F3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="J3" s="2">
+        <f>I3-H3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="M3" s="5">
+        <f>L3-K3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="P3" s="5">
+        <f>O3-N3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D20" si="0">C4-B4</f>
+        <v>-0.27</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G20" si="1">F4-E4</f>
+        <v>0.12</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J20" si="2">I4-H4</f>
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" ref="M4:M20" si="3">L4-K4</f>
+        <v>-0.72</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" ref="P4:P20" si="4">O4-N4</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000003</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.9999999999999942E-2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="4"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.21000000000000002</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.9999999999999962E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="3"/>
+        <v>-5.0000000000000017E-2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.999999999999996E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999971E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.2</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.23999999999999996</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="4"/>
+        <v>0.32999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.40000000000000008</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="3"/>
+        <v>0.18</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.36000000000000004</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000003</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="4"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.10999999999999999</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000024E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.42</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.9999999999999916E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.21000000000000002</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="3"/>
+        <v>-8.0000000000000016E-2</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.18</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.34</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.999999999999998E-2</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="4"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999979E-2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.9999999999999962E-2</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.34</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.9999999999999916E-2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="2"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="3"/>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="4"/>
+        <v>9.0000000000000024E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C44F130-6445-DA48-A510-AB13B16ABDDA}">
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="G3" s="5">
+        <f>F3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="J3" s="2">
+        <f>I3-H3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="M3" s="5">
+        <f>L3-K3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="P3" s="5">
+        <f>O3-N3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D20" si="0">C4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G20" si="1">F4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J20" si="2">I4-H4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" ref="M4:M20" si="3">L4-K4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" ref="P4:P20" si="4">O4-N4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="4"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.999999999999996E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="3"/>
+        <v>-8.9999999999999969E-2</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.11000000000000004</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="4"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.33999999999999997</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="4"/>
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.9999999999999933E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.41</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="3"/>
+        <v>0.44</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="4"/>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.21999999999999997</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23000000000000004</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="3"/>
+        <v>0.34</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="4"/>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.19</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="4"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.10999999999999999</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.16999999999999993</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.22999999999999998</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.17999999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="3"/>
+        <v>-9.000000000000008E-2</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="1"/>
+        <v>-7.0000000000000062E-2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.9999999999999942E-2</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="4"/>
+        <v>-9.000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.9999999999999916E-2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" si="3"/>
+        <v>-7.999999999999996E-2</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="1"/>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999971E-2</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999534E-3</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.9999999999999925E-2</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10999999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="M20" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B706E8DA-3590-0D44-90A8-71DEDF671F7A}">
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFC5D31-F196-2442-ACF5-98EFDB795DEF}">
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>